--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_37.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3154846.514961391</v>
+        <v>3149643.181501076</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.381847138</v>
+        <v>2310564.14322317</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791245</v>
+        <v>419463.0933791243</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7210099.246256349</v>
+        <v>7208329.308085092</v>
       </c>
     </row>
     <row r="11">
@@ -671,13 +671,13 @@
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>206.3670033956586</v>
       </c>
       <c r="X2" t="n">
-        <v>127.0925680059613</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -750,13 +750,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>74.86702424530591</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>98.54676348900232</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>55.24675346159196</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -874,7 +874,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>53.03638470914573</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>168.4149065023638</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>83.84708725779312</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>33.54550680794598</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>10.74723204132687</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
         <v>175.2139736830806</v>
@@ -1035,7 +1035,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>214.0175430895177</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>78.672419025143</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>201.7705497597504</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>93.86158641218542</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.52529077486058</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>13.22962011024177</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603044</v>
+        <v>74.0758460238451</v>
       </c>
       <c r="F11" t="n">
         <v>318.7342196110055</v>
@@ -1388,7 +1388,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T11" t="n">
         <v>127.274321941861</v>
@@ -1427,7 +1427,7 @@
         <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
-        <v>128.0235138909284</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
         <v>273.2977702070789</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C13" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S13" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T13" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U13" t="n">
         <v>188.5931293662016</v>
@@ -1610,22 +1610,22 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>273.4823810173255</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603045</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
       </c>
       <c r="G14" t="n">
-        <v>174.8958517036847</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
@@ -1670,7 +1670,7 @@
         <v>273.297770207079</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
         <v>298.5345275142885</v>
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2093,13 +2093,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879316</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380516</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596456</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380516</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596456</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2770,13 +2770,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003581</v>
+        <v>280.4599644277189</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281738</v>
+        <v>273.2139126555347</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415741</v>
+        <v>265.5568836689349</v>
       </c>
       <c r="E32" t="n">
-        <v>288.971318280696</v>
+        <v>282.5278558080569</v>
       </c>
       <c r="F32" t="n">
-        <v>303.1391227313972</v>
+        <v>296.695660258758</v>
       </c>
       <c r="G32" t="n">
-        <v>299.444756602952</v>
+        <v>293.0012941303128</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752494</v>
+        <v>204.8123861026102</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453498</v>
+        <v>20.9239119118958</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443511</v>
+        <v>48.81858568179592</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622527</v>
+        <v>105.2357625896135</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158225</v>
+        <v>137.1653684431834</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495919</v>
+        <v>222.6559073769528</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274706</v>
+        <v>251.2592108548314</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623489</v>
+        <v>269.5282451897097</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.93943063468</v>
+        <v>276.4959681620409</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046343</v>
+        <v>67.32610467782425</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074584</v>
+        <v>52.47323292810665</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258556</v>
+        <v>38.04694813994638</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546467</v>
+        <v>37.97339019282549</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523194</v>
+        <v>39.72284161259276</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762408</v>
+        <v>50.54167953498489</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419612</v>
+        <v>37.89393170155694</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536805</v>
+        <v>15.73364728272887</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982397</v>
+        <v>6.632145647184785</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535129</v>
+        <v>84.7580891527121</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595234</v>
+        <v>117.3320274868842</v>
       </c>
       <c r="U34" t="n">
-        <v>172.9980324865932</v>
+        <v>166.554570013954</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734592</v>
+        <v>147.28971790082</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942093</v>
+        <v>164.4672642215701</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409219</v>
+        <v>115.7096851682827</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.2945692175982</v>
+        <v>104.8511067449591</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
         <v>251.2267481799146</v>
@@ -3275,16 +3275,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
         <v>251.2267481799146</v>
@@ -3512,16 +3512,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3563,10 +3563,10 @@
         <v>208.3257718879325</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006883</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3740,16 +3740,16 @@
         <v>300.0229587840511</v>
       </c>
       <c r="C41" t="n">
-        <v>292.7769070118668</v>
+        <v>292.7769070118669</v>
       </c>
       <c r="D41" t="n">
-        <v>285.1198780252671</v>
+        <v>1.098310803921545</v>
       </c>
       <c r="E41" t="n">
         <v>302.0908501643891</v>
       </c>
       <c r="F41" t="n">
-        <v>316.2586546150901</v>
+        <v>316.2586546150902</v>
       </c>
       <c r="G41" t="n">
         <v>312.564288486645</v>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>27.28754425804597</v>
+        <v>40.48690626822797</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812808</v>
+        <v>68.38158003812809</v>
       </c>
       <c r="T41" t="n">
         <v>124.7987569459456</v>
@@ -3797,13 +3797,13 @@
         <v>156.7283627995155</v>
       </c>
       <c r="V41" t="n">
-        <v>242.2189017332849</v>
+        <v>242.218901733285</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>270.8222052111636</v>
       </c>
       <c r="X41" t="n">
-        <v>289.0912395460418</v>
+        <v>289.0912395460419</v>
       </c>
       <c r="Y41" t="n">
         <v>296.0589625183731</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.8890990341564</v>
+        <v>86.88909903415642</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443881</v>
+        <v>72.03622728443882</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627853</v>
+        <v>57.60994249627855</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915765</v>
+        <v>57.53638454915766</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892491</v>
+        <v>59.28583596892493</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131705</v>
+        <v>70.10467389131706</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788909</v>
+        <v>57.45692605788911</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906102</v>
+        <v>35.29664163906104</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351694</v>
+        <v>26.19514000351695</v>
       </c>
       <c r="S43" t="n">
         <v>104.3210835090443</v>
@@ -3955,7 +3955,7 @@
         <v>186.1175643702862</v>
       </c>
       <c r="V43" t="n">
-        <v>166.8527122571521</v>
+        <v>166.8527122571522</v>
       </c>
       <c r="W43" t="n">
         <v>184.0302585779023</v>
@@ -3977,22 +3977,22 @@
         <v>300.0229587840511</v>
       </c>
       <c r="C44" t="n">
-        <v>292.7769070118668</v>
+        <v>292.7769070118669</v>
       </c>
       <c r="D44" t="n">
-        <v>285.1198780252671</v>
+        <v>41.58521707214972</v>
       </c>
       <c r="E44" t="n">
         <v>302.0908501643891</v>
       </c>
       <c r="F44" t="n">
-        <v>316.2586546150901</v>
+        <v>316.2586546150902</v>
       </c>
       <c r="G44" t="n">
         <v>312.564288486645</v>
       </c>
       <c r="H44" t="n">
-        <v>106.3740388304714</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>68.38158003812809</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V44" t="n">
-        <v>242.2189017332849</v>
+        <v>242.218901733285</v>
       </c>
       <c r="W44" t="n">
         <v>270.8222052111636</v>
       </c>
       <c r="X44" t="n">
-        <v>289.0912395460418</v>
+        <v>289.0912395460419</v>
       </c>
       <c r="Y44" t="n">
         <v>296.0589625183731</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.8890990341564</v>
+        <v>86.88909903415642</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443881</v>
+        <v>72.03622728443882</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627853</v>
+        <v>57.60994249627855</v>
       </c>
       <c r="E46" t="n">
-        <v>57.53638454915765</v>
+        <v>57.53638454915766</v>
       </c>
       <c r="F46" t="n">
-        <v>59.28583596892491</v>
+        <v>59.28583596892493</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131705</v>
+        <v>70.10467389131706</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788909</v>
+        <v>57.45692605788911</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906102</v>
+        <v>35.29664163906104</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.19514000351694</v>
+        <v>26.19514000351695</v>
       </c>
       <c r="S46" t="n">
         <v>104.3210835090443</v>
@@ -4192,7 +4192,7 @@
         <v>186.1175643702862</v>
       </c>
       <c r="V46" t="n">
-        <v>166.8527122571521</v>
+        <v>166.8527122571522</v>
       </c>
       <c r="W46" t="n">
         <v>184.0302585779023</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>202.804241345785</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="C2" t="n">
-        <v>202.804241345785</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="D2" t="n">
-        <v>202.804241345785</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="E2" t="n">
-        <v>202.804241345785</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="F2" t="n">
-        <v>189.9502069161668</v>
+        <v>777.7441318441286</v>
       </c>
       <c r="G2" t="n">
-        <v>180.827855444574</v>
+        <v>364.5813763321316</v>
       </c>
       <c r="H2" t="n">
-        <v>180.827855444574</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703886</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="J2" t="n">
-        <v>187.140511445867</v>
+        <v>46.56170315639559</v>
       </c>
       <c r="K2" t="n">
-        <v>546.1228674733288</v>
+        <v>405.5440591838574</v>
       </c>
       <c r="L2" t="n">
-        <v>1039.443159191858</v>
+        <v>898.8643509023863</v>
       </c>
       <c r="M2" t="n">
-        <v>1158.674436563759</v>
+        <v>898.8643509023863</v>
       </c>
       <c r="N2" t="n">
-        <v>1684.497325959614</v>
+        <v>1400.031133897837</v>
       </c>
       <c r="O2" t="n">
-        <v>2124.536926851943</v>
+        <v>1840.070734790165</v>
       </c>
       <c r="P2" t="n">
-        <v>2124.536926851943</v>
+        <v>1840.070734790165</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851943</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="R2" t="n">
-        <v>2086.544013137465</v>
+        <v>1986.923381216636</v>
       </c>
       <c r="S2" t="n">
-        <v>1920.030458078515</v>
+        <v>1820.409826157686</v>
       </c>
       <c r="T2" t="n">
-        <v>1696.529855637932</v>
+        <v>1596.909223717103</v>
       </c>
       <c r="U2" t="n">
-        <v>1440.777126072531</v>
+        <v>1341.156494151702</v>
       </c>
       <c r="V2" t="n">
-        <v>1098.670316776049</v>
+        <v>999.0496848552201</v>
       </c>
       <c r="W2" t="n">
-        <v>727.6712817443367</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="X2" t="n">
-        <v>599.2949504251839</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="Y2" t="n">
-        <v>202.804241345785</v>
+        <v>790.5981662737468</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>841.8567216770698</v>
+        <v>657.7430775364705</v>
       </c>
       <c r="C3" t="n">
-        <v>691.202491237162</v>
+        <v>507.0888470965627</v>
       </c>
       <c r="D3" t="n">
-        <v>561.1135238586423</v>
+        <v>376.9998797180431</v>
       </c>
       <c r="E3" t="n">
-        <v>424.6670329695301</v>
+        <v>240.5533888289308</v>
       </c>
       <c r="F3" t="n">
-        <v>300.2352268526619</v>
+        <v>116.1215827120626</v>
       </c>
       <c r="G3" t="n">
-        <v>180.1754089245263</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="H3" t="n">
-        <v>91.87799252512727</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703886</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="J3" t="n">
-        <v>155.6057207567662</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="K3" t="n">
-        <v>475.3448668189927</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="L3" t="n">
-        <v>958.9109527173059</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="M3" t="n">
-        <v>1484.733842113162</v>
+        <v>861.4042549562994</v>
       </c>
       <c r="N3" t="n">
-        <v>1890.171835297052</v>
+        <v>883.7630516643752</v>
       </c>
       <c r="O3" t="n">
-        <v>1890.171835297052</v>
+        <v>1384.929834659826</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.171835297052</v>
+        <v>1790.551203376223</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851943</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="R3" t="n">
-        <v>2124.536926851943</v>
+        <v>2000.999251829179</v>
       </c>
       <c r="S3" t="n">
-        <v>2124.536926851943</v>
+        <v>1866.068574729047</v>
       </c>
       <c r="T3" t="n">
-        <v>2024.994741509516</v>
+        <v>1689.084762927956</v>
       </c>
       <c r="U3" t="n">
-        <v>1814.931598188158</v>
+        <v>1479.021619606598</v>
       </c>
       <c r="V3" t="n">
-        <v>1592.391596559225</v>
+        <v>1256.481617977665</v>
       </c>
       <c r="W3" t="n">
-        <v>1362.274350692512</v>
+        <v>1026.364372110952</v>
       </c>
       <c r="X3" t="n">
-        <v>1172.967273042524</v>
+        <v>837.0572944609632</v>
       </c>
       <c r="Y3" t="n">
-        <v>993.6530561180311</v>
+        <v>657.7430775364705</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.49073853703886</v>
+        <v>241.0817140065311</v>
       </c>
       <c r="C4" t="n">
-        <v>42.49073853703886</v>
+        <v>70.87659607252033</v>
       </c>
       <c r="D4" t="n">
-        <v>42.49073853703886</v>
+        <v>70.87659607252033</v>
       </c>
       <c r="E4" t="n">
-        <v>42.49073853703886</v>
+        <v>70.87659607252033</v>
       </c>
       <c r="F4" t="n">
-        <v>42.49073853703886</v>
+        <v>70.87659607252033</v>
       </c>
       <c r="G4" t="n">
-        <v>42.49073853703886</v>
+        <v>70.87659607252033</v>
       </c>
       <c r="H4" t="n">
-        <v>42.49073853703886</v>
+        <v>70.87659607252033</v>
       </c>
       <c r="I4" t="n">
-        <v>42.49073853703886</v>
+        <v>70.87659607252033</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703886</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085642</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>820.0367717111683</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S4" t="n">
-        <v>617.2206878937177</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="T4" t="n">
-        <v>381.5016360619518</v>
+        <v>582.3253072409857</v>
       </c>
       <c r="U4" t="n">
-        <v>96.06284430385273</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="V4" t="n">
-        <v>42.49073853703886</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="W4" t="n">
-        <v>42.49073853703886</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="X4" t="n">
-        <v>42.49073853703886</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="Y4" t="n">
-        <v>42.49073853703886</v>
+        <v>296.8865154828866</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1088.189728564185</v>
+        <v>551.2091433733617</v>
       </c>
       <c r="C5" t="n">
-        <v>1088.189728564185</v>
+        <v>551.2091433733617</v>
       </c>
       <c r="D5" t="n">
-        <v>1088.189728564185</v>
+        <v>551.2091433733617</v>
       </c>
       <c r="E5" t="n">
-        <v>1088.189728564185</v>
+        <v>551.2091433733617</v>
       </c>
       <c r="F5" t="n">
-        <v>918.0736613900802</v>
+        <v>538.3551089437435</v>
       </c>
       <c r="G5" t="n">
-        <v>504.9109058780834</v>
+        <v>125.1923534317467</v>
       </c>
       <c r="H5" t="n">
-        <v>180.827855444574</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703886</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="J5" t="n">
-        <v>187.140511445867</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K5" t="n">
-        <v>546.1228674733288</v>
+        <v>544.1304548349123</v>
       </c>
       <c r="L5" t="n">
-        <v>546.1228674733288</v>
+        <v>1037.450746553441</v>
       </c>
       <c r="M5" t="n">
-        <v>625.6413842912883</v>
+        <v>1051.843641766315</v>
       </c>
       <c r="N5" t="n">
-        <v>1151.464273687144</v>
+        <v>1051.843641766315</v>
       </c>
       <c r="O5" t="n">
-        <v>1591.503874579473</v>
+        <v>1491.883242658644</v>
       </c>
       <c r="P5" t="n">
-        <v>1939.691366710995</v>
+        <v>1840.070734790165</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851943</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="R5" t="n">
-        <v>2086.544013137465</v>
+        <v>1986.923381216636</v>
       </c>
       <c r="S5" t="n">
-        <v>2086.544013137465</v>
+        <v>1820.409826157686</v>
       </c>
       <c r="T5" t="n">
-        <v>2086.544013137465</v>
+        <v>1596.909223717103</v>
       </c>
       <c r="U5" t="n">
-        <v>1830.791283572064</v>
+        <v>1341.156494151702</v>
       </c>
       <c r="V5" t="n">
-        <v>1488.684474275582</v>
+        <v>1341.156494151702</v>
       </c>
       <c r="W5" t="n">
-        <v>1488.684474275582</v>
+        <v>1341.156494151702</v>
       </c>
       <c r="X5" t="n">
-        <v>1488.684474275582</v>
+        <v>951.7038890847585</v>
       </c>
       <c r="Y5" t="n">
-        <v>1488.684474275582</v>
+        <v>951.7038890847585</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>753.5593052776708</v>
+        <v>736.0639889622223</v>
       </c>
       <c r="C6" t="n">
-        <v>602.905074837763</v>
+        <v>585.4097585223145</v>
       </c>
       <c r="D6" t="n">
-        <v>472.8161074592433</v>
+        <v>455.3207911437948</v>
       </c>
       <c r="E6" t="n">
-        <v>336.369616570131</v>
+        <v>318.8743002546826</v>
       </c>
       <c r="F6" t="n">
-        <v>211.9378104532628</v>
+        <v>194.4424941378144</v>
       </c>
       <c r="G6" t="n">
-        <v>91.87799252512727</v>
+        <v>74.38267620967882</v>
       </c>
       <c r="H6" t="n">
-        <v>91.87799252512727</v>
+        <v>74.38267620967882</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703886</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="J6" t="n">
-        <v>42.49073853703886</v>
+        <v>153.6133081183497</v>
       </c>
       <c r="K6" t="n">
-        <v>362.2298845992653</v>
+        <v>473.3524541805761</v>
       </c>
       <c r="L6" t="n">
-        <v>845.7959704975785</v>
+        <v>521.4159459447617</v>
       </c>
       <c r="M6" t="n">
-        <v>1202.395275544564</v>
+        <v>1022.582728940212</v>
       </c>
       <c r="N6" t="n">
-        <v>1202.395275544564</v>
+        <v>1523.749511935663</v>
       </c>
       <c r="O6" t="n">
-        <v>1718.915558135546</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="P6" t="n">
-        <v>2124.536926851943</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851943</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="R6" t="n">
-        <v>2124.536926851943</v>
+        <v>2000.999251829179</v>
       </c>
       <c r="S6" t="n">
-        <v>2113.681136911209</v>
+        <v>1866.068574729047</v>
       </c>
       <c r="T6" t="n">
-        <v>1936.697325110117</v>
+        <v>1689.084762927956</v>
       </c>
       <c r="U6" t="n">
-        <v>1726.634181788759</v>
+        <v>1479.021619606598</v>
       </c>
       <c r="V6" t="n">
-        <v>1504.094180159826</v>
+        <v>1256.481617977665</v>
       </c>
       <c r="W6" t="n">
-        <v>1273.976934293113</v>
+        <v>1256.481617977665</v>
       </c>
       <c r="X6" t="n">
-        <v>1084.669856643125</v>
+        <v>1067.174540327676</v>
       </c>
       <c r="Y6" t="n">
-        <v>905.3556397186321</v>
+        <v>887.8603234031837</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>679.2626524629031</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="C7" t="n">
-        <v>679.2626524629031</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="D7" t="n">
-        <v>523.6295393654178</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="E7" t="n">
-        <v>368.0707272246203</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="F7" t="n">
-        <v>210.7447924375933</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="G7" t="n">
-        <v>42.49073853703886</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="H7" t="n">
-        <v>42.49073853703886</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703886</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703886</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085642</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="T7" t="n">
-        <v>943.9377610785913</v>
+        <v>725.7660119861163</v>
       </c>
       <c r="U7" t="n">
-        <v>943.9377610785913</v>
+        <v>725.7660119861163</v>
       </c>
       <c r="V7" t="n">
-        <v>943.9377610785913</v>
+        <v>459.7866668069405</v>
       </c>
       <c r="W7" t="n">
-        <v>943.9377610785913</v>
+        <v>459.7866668069405</v>
       </c>
       <c r="X7" t="n">
-        <v>864.4706711542044</v>
+        <v>225.7063445899236</v>
       </c>
       <c r="Y7" t="n">
-        <v>864.4706711542044</v>
+        <v>225.7063445899236</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1218.059037955109</v>
+        <v>1285.397995218369</v>
       </c>
       <c r="C8" t="n">
-        <v>1014.250401834149</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="D8" t="n">
-        <v>1014.250401834149</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="E8" t="n">
-        <v>611.6668769506938</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806716</v>
+        <v>879.3684592916816</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>466.2057037796847</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>142.1226533461754</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>540.6332618200724</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1086.634161864653</v>
+        <v>1212.952060406441</v>
       </c>
       <c r="N8" t="n">
-        <v>1614.445445502115</v>
+        <v>1740.763344043903</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P8" t="n">
         <v>2180.802944936232</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362702</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2327.655591362702</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.655591362702</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>1985.548782066221</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W8" t="n">
-        <v>1614.549747034508</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X8" t="n">
-        <v>1614.549747034508</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="Y8" t="n">
-        <v>1218.059037955109</v>
+        <v>1285.397995218369</v>
       </c>
     </row>
     <row r="9">
@@ -4884,16 +4884,16 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L9" t="n">
-        <v>623.6437572083089</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083089</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O9" t="n">
         <v>1725.662044805892</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>854.2900019614187</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>684.084884027408</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>528.4517709299226</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>372.8929587891251</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>215.5670240020981</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>232.5209887928449</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1509.593365335563</v>
+        <v>1320.171044252415</v>
       </c>
       <c r="C11" t="n">
-        <v>1211.358545125682</v>
+        <v>1021.936224042534</v>
       </c>
       <c r="D11" t="n">
-        <v>920.8580976295377</v>
+        <v>731.4357765463903</v>
       </c>
       <c r="E11" t="n">
-        <v>613.2152540332706</v>
+        <v>656.6116896536175</v>
       </c>
       <c r="F11" t="n">
-        <v>291.2614968504367</v>
+        <v>334.6579324707836</v>
       </c>
       <c r="G11" t="n">
-        <v>291.2614968504367</v>
+        <v>334.6579324707836</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411573</v>
+        <v>105.5155633244626</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411573</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>2977.396464052382</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>2816.584415774169</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="V11" t="n">
-        <v>2687.267735076261</v>
+        <v>2497.845413993113</v>
       </c>
       <c r="W11" t="n">
-        <v>2411.209381331736</v>
+        <v>2221.787060248589</v>
       </c>
       <c r="X11" t="n">
-        <v>2116.697457551982</v>
+        <v>1927.275136468834</v>
       </c>
       <c r="Y11" t="n">
-        <v>1815.147429759771</v>
+        <v>1625.725108676624</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
-        <v>1223.947919817482</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669550999</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082775</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979806</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443715</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445328</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G13" t="n">
-        <v>160.8107415311667</v>
+        <v>160.8107415311671</v>
       </c>
       <c r="H13" t="n">
         <v>100.2728717798493</v>
@@ -5200,10 +5200,10 @@
         <v>125.3967468362514</v>
       </c>
       <c r="K13" t="n">
-        <v>300.2831496757666</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791397</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M13" t="n">
         <v>836.805091346977</v>
@@ -5218,13 +5218,13 @@
         <v>1581.729743385192</v>
       </c>
       <c r="Q13" t="n">
-        <v>1678.203301484816</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R13" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.367590874319</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T13" t="n">
         <v>1400.589220329742</v>
@@ -5236,13 +5236,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852096</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553811</v>
+        <v>711.5230842553816</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592128</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1686.255841803931</v>
+        <v>1320.171044252416</v>
       </c>
       <c r="C14" t="n">
-        <v>1388.02102159405</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D14" t="n">
-        <v>1097.520574097906</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="E14" t="n">
-        <v>789.8777305016391</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="F14" t="n">
-        <v>467.9239733188052</v>
+        <v>423.7376375492709</v>
       </c>
       <c r="G14" t="n">
-        <v>291.2614968504365</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>2977.396464052381</v>
+        <v>2905.823590280621</v>
       </c>
       <c r="U14" t="n">
-        <v>2816.584415774168</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V14" t="n">
-        <v>2569.418287764874</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W14" t="n">
-        <v>2293.35993402035</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>2293.35993402035</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y14" t="n">
-        <v>1991.809906228139</v>
+        <v>1625.725108676624</v>
       </c>
     </row>
     <row r="15">
@@ -5364,16 +5364,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1458.313011372373</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082776</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979807</v>
+        <v>357.1274984979809</v>
       </c>
       <c r="E16" t="n">
-        <v>296.509367644372</v>
+        <v>296.5093676443721</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445332</v>
+        <v>234.1241141445335</v>
       </c>
       <c r="G16" t="n">
-        <v>160.8107415311671</v>
+        <v>160.8107415311672</v>
       </c>
       <c r="H16" t="n">
-        <v>100.2728717798494</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5443,16 +5443,16 @@
         <v>557.4621512791393</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469766</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N16" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P16" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q16" t="n">
         <v>1678.203301484817</v>
@@ -5461,25 +5461,25 @@
         <v>1649.242993404582</v>
       </c>
       <c r="S16" t="n">
-        <v>1541.367590874319</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T16" t="n">
         <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V16" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852098</v>
+        <v>850.6627251852102</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553813</v>
+        <v>711.5230842553816</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592128</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
         <v>68.7795079292422</v>
@@ -5546,7 +5546,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573995</v>
@@ -5598,16 +5598,16 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>862.5399502876207</v>
       </c>
       <c r="M18" t="n">
-        <v>978.5393418843826</v>
+        <v>1490.311599914302</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P18" t="n">
         <v>2146.089571124861</v>
@@ -5671,28 +5671,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229885</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446693</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P19" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5741,10 +5741,10 @@
         <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924226</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5780,10 +5780,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
         <v>2644.789635573995</v>
@@ -5795,7 +5795,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5832,13 +5832,13 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M21" t="n">
-        <v>978.5393418843826</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5923,37 +5923,37 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>967.282790386234</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1087.158956162813</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974525</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5978,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924226</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6014,7 +6014,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6023,10 +6023,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6066,19 +6066,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843826</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974525</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6209,10 +6209,10 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218609</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390267</v>
       </c>
       <c r="G26" t="n">
         <v>345.9036637142181</v>
@@ -6233,7 +6233,7 @@
         <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1988.523626565243</v>
+        <v>1925.441780118093</v>
       </c>
       <c r="N26" t="n">
         <v>2546.304425485128</v>
@@ -6260,7 +6260,7 @@
         <v>3307.298104174145</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164852</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
         <v>2784.073622420327</v>
@@ -6306,13 +6306,13 @@
         <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>607.4220014342354</v>
       </c>
       <c r="M27" t="n">
-        <v>989.7850731278173</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6361,10 +6361,10 @@
         <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878065</v>
@@ -6373,16 +6373,16 @@
         <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755027</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796859</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
         <v>311.528880919201</v>
@@ -6397,13 +6397,13 @@
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286449</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988161</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.5974356026478</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,25 +6461,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>576.9969878838402</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1100.286794884791</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658945</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.20170202598</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647882</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6549,10 +6549,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084639</v>
+        <v>1719.814764781097</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985474</v>
+        <v>1443.841115634092</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600045</v>
+        <v>1175.601839200825</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144936</v>
+        <v>890.2201666674339</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423753</v>
+        <v>590.5275805474763</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282825</v>
+        <v>294.5666773855442</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267682</v>
+        <v>87.68547930209945</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304551</v>
+        <v>66.55021474462895</v>
       </c>
       <c r="J32" t="n">
-        <v>213.1924002918736</v>
+        <v>211.1999876534571</v>
       </c>
       <c r="K32" t="n">
-        <v>572.1747563193355</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1065.495048037864</v>
+        <v>1165.756364896306</v>
       </c>
       <c r="M32" t="n">
-        <v>1611.495948082445</v>
+        <v>1711.757264940887</v>
       </c>
       <c r="N32" t="n">
-        <v>2165.82404779788</v>
+        <v>2239.568548578349</v>
       </c>
       <c r="O32" t="n">
-        <v>2605.863648690208</v>
+        <v>2794.477684958976</v>
       </c>
       <c r="P32" t="n">
-        <v>3062.541648462116</v>
+        <v>3142.665177090498</v>
       </c>
       <c r="Q32" t="n">
-        <v>3355.87771624345</v>
+        <v>3327.510737231447</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152276</v>
+        <v>3327.510737231447</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.31111849123</v>
+        <v>3278.199034522562</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448551</v>
+        <v>3171.900284432044</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281052</v>
+        <v>3033.349407216707</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382475</v>
+        <v>2808.44445027029</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748667</v>
+        <v>2554.647267588642</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079627</v>
+        <v>2282.396514871763</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.168454398132</v>
+        <v>2003.107658142429</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230765</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831687</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.165412704649</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155367</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.227297770533</v>
+        <v>204.2348851321164</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711339</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304551</v>
+        <v>66.55021474462895</v>
       </c>
       <c r="J33" t="n">
-        <v>181.6576096027729</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>501.3967556649993</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="L33" t="n">
-        <v>984.9628415633126</v>
+        <v>663.2312828626696</v>
       </c>
       <c r="M33" t="n">
-        <v>984.9628415633126</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="N33" t="n">
-        <v>1230.371419496412</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>1744.899289448977</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2150.520658165374</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590216</v>
+        <v>341.6872565554795</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229147</v>
+        <v>288.6839909715333</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233333</v>
+        <v>250.2527302241128</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804397</v>
+        <v>211.8957704333799</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913165</v>
+        <v>171.7716879964175</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886659</v>
+        <v>120.7194864459277</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806375</v>
+        <v>82.44278775748639</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304551</v>
+        <v>66.55021474462895</v>
       </c>
       <c r="J34" t="n">
-        <v>147.2593924259936</v>
+        <v>66.55021474462895</v>
       </c>
       <c r="K34" t="n">
-        <v>337.5849411763211</v>
+        <v>148.3852558545708</v>
       </c>
       <c r="L34" t="n">
-        <v>501.7125810501209</v>
+        <v>427.382431216669</v>
       </c>
       <c r="M34" t="n">
-        <v>688.0041593883849</v>
+        <v>728.5435450432315</v>
       </c>
       <c r="N34" t="n">
-        <v>979.6843010599797</v>
+        <v>911.7331790744406</v>
       </c>
       <c r="O34" t="n">
-        <v>1250.879575742073</v>
+        <v>1189.307481604447</v>
       </c>
       <c r="P34" t="n">
-        <v>1429.162635022247</v>
+        <v>1323.033455149258</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392298</v>
+        <v>1326.455651519309</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422779</v>
+        <v>1319.756514501951</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003232</v>
+        <v>1234.142283034565</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.22861956937</v>
+        <v>1115.625083552864</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209175</v>
+        <v>947.3881441448292</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279032</v>
+        <v>798.6106513157181</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569847</v>
+        <v>632.4821015969603</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378717</v>
+        <v>515.603631730008</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.754219152419</v>
+        <v>409.6934228967161</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975443</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099305</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6965,19 +6965,19 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7020,10 +7020,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7096,49 +7096,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>273.0105384364859</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L37" t="n">
-        <v>437.1381783102856</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485496</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7157,16 +7157,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7202,10 +7202,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
         <v>2644.789635573994</v>
@@ -7217,7 +7217,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7254,19 +7254,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5393418843826</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7333,49 +7333,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>845.8474307072231</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.77996610623</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1613.733392917554</v>
+        <v>1340.175609875974</v>
       </c>
       <c r="C41" t="n">
-        <v>1317.999143410618</v>
+        <v>1044.441360369038</v>
       </c>
       <c r="D41" t="n">
-        <v>1029.999266617418</v>
+        <v>1043.331955516592</v>
       </c>
       <c r="E41" t="n">
-        <v>724.8569937240961</v>
+        <v>738.1896826232702</v>
       </c>
       <c r="F41" t="n">
-        <v>405.4038072442072</v>
+        <v>418.7364961433811</v>
       </c>
       <c r="G41" t="n">
-        <v>89.68230372234379</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="H41" t="n">
-        <v>89.68230372234379</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7445,16 +7445,16 @@
         <v>2752.513254111242</v>
       </c>
       <c r="V41" t="n">
-        <v>2507.847696804893</v>
+        <v>2507.847696804894</v>
       </c>
       <c r="W41" t="n">
-        <v>2507.847696804893</v>
+        <v>2234.289913763314</v>
       </c>
       <c r="X41" t="n">
-        <v>2215.836343728083</v>
+        <v>1942.278560686504</v>
       </c>
       <c r="Y41" t="n">
-        <v>1916.786886638817</v>
+        <v>1643.229103597238</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2181.928177194563</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344863</v>
+        <v>475.5803720344864</v>
       </c>
       <c r="C43" t="n">
         <v>402.8165060906088</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832567</v>
+        <v>344.6246449832568</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325924</v>
+        <v>286.5070848325925</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356985</v>
+        <v>226.6224020356986</v>
       </c>
       <c r="G43" t="n">
         <v>155.8096001252773</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690444</v>
+        <v>97.77230107690445</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8475561822076</v>
+        <v>68.23195016744069</v>
       </c>
       <c r="K43" t="n">
-        <v>305.184768367679</v>
+        <v>245.5691623529121</v>
       </c>
       <c r="L43" t="n">
-        <v>564.8145793170083</v>
+        <v>505.1989733022414</v>
       </c>
       <c r="M43" t="n">
-        <v>786.9927227160347</v>
+        <v>786.9927227160349</v>
       </c>
       <c r="N43" t="n">
-        <v>1065.684527822773</v>
+        <v>1065.684527822774</v>
       </c>
       <c r="O43" t="n">
         <v>1323.891465940011</v>
@@ -7588,31 +7588,31 @@
         <v>1539.269802792119</v>
       </c>
       <c r="Q43" t="n">
-        <v>1638.194170237699</v>
+        <v>1638.1941702377</v>
       </c>
       <c r="R43" t="n">
-        <v>1611.734432860409</v>
+        <v>1611.73443286041</v>
       </c>
       <c r="S43" t="n">
         <v>1506.359601033092</v>
       </c>
       <c r="T43" t="n">
-        <v>1368.081801191459</v>
+        <v>1368.08180119146</v>
       </c>
       <c r="U43" t="n">
-        <v>1180.084261423493</v>
+        <v>1180.084261423494</v>
       </c>
       <c r="V43" t="n">
         <v>1011.546168234451</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557616</v>
+        <v>825.6570181557618</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288779</v>
+        <v>689.017947928878</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356544</v>
+        <v>563.3471387356545</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1693.618740970509</v>
+        <v>1340.175609875974</v>
       </c>
       <c r="C44" t="n">
-        <v>1397.884491463573</v>
+        <v>1044.441360369038</v>
       </c>
       <c r="D44" t="n">
-        <v>1109.884614670374</v>
+        <v>1002.43609059919</v>
       </c>
       <c r="E44" t="n">
-        <v>804.7423417770515</v>
+        <v>697.2938177058682</v>
       </c>
       <c r="F44" t="n">
-        <v>485.2891552971624</v>
+        <v>377.8406312259792</v>
       </c>
       <c r="G44" t="n">
-        <v>169.5676517752989</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K44" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L44" t="n">
         <v>1059.071548358934</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3105.956385205776</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T44" t="n">
-        <v>3105.956385205776</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U44" t="n">
-        <v>3105.956385205776</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V44" t="n">
-        <v>2861.290827899428</v>
+        <v>2507.847696804893</v>
       </c>
       <c r="W44" t="n">
-        <v>2587.733044857849</v>
+        <v>2234.289913763314</v>
       </c>
       <c r="X44" t="n">
-        <v>2295.721691781038</v>
+        <v>1942.278560686504</v>
       </c>
       <c r="Y44" t="n">
-        <v>1996.672234691773</v>
+        <v>1643.229103597238</v>
       </c>
     </row>
     <row r="45">
@@ -7725,19 +7725,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>456.9185815712231</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5393418843826</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344863</v>
+        <v>475.5803720344864</v>
       </c>
       <c r="C46" t="n">
         <v>402.8165060906088</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832567</v>
+        <v>344.6246449832568</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325924</v>
+        <v>286.5070848325925</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356985</v>
+        <v>226.6224020356986</v>
       </c>
       <c r="G46" t="n">
         <v>155.8096001252773</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77230107690444</v>
+        <v>97.77230107690445</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7813,10 +7813,10 @@
         <v>564.8145793170083</v>
       </c>
       <c r="M46" t="n">
-        <v>846.608328730802</v>
+        <v>846.6083287308019</v>
       </c>
       <c r="N46" t="n">
-        <v>1065.684527822773</v>
+        <v>1065.684527822774</v>
       </c>
       <c r="O46" t="n">
         <v>1323.891465940011</v>
@@ -7825,31 +7825,31 @@
         <v>1539.269802792119</v>
       </c>
       <c r="Q46" t="n">
-        <v>1638.194170237699</v>
+        <v>1638.1941702377</v>
       </c>
       <c r="R46" t="n">
-        <v>1611.734432860409</v>
+        <v>1611.73443286041</v>
       </c>
       <c r="S46" t="n">
         <v>1506.359601033092</v>
       </c>
       <c r="T46" t="n">
-        <v>1368.081801191459</v>
+        <v>1368.08180119146</v>
       </c>
       <c r="U46" t="n">
-        <v>1180.084261423493</v>
+        <v>1180.084261423494</v>
       </c>
       <c r="V46" t="n">
         <v>1011.546168234451</v>
       </c>
       <c r="W46" t="n">
-        <v>825.6570181557616</v>
+        <v>825.6570181557618</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288779</v>
+        <v>689.017947928878</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.3471387356544</v>
+        <v>563.3471387356545</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>123.8044614350464</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
@@ -7985,10 +7985,10 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>270.1606853067183</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>680.2527230507699</v>
+        <v>655.3475650705626</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -7997,7 +7997,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,25 +8055,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>623.5213537622976</v>
+        <v>598.6161957820904</v>
       </c>
       <c r="N3" t="n">
-        <v>494.9054393025411</v>
+        <v>107.9567559936372</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>598.9166326216674</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8219,13 +8219,13 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>230.0467857572823</v>
+        <v>164.2633295905293</v>
       </c>
       <c r="N5" t="n">
-        <v>680.2527230507699</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8292,25 +8292,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>138.6093284369037</v>
       </c>
       <c r="M6" t="n">
-        <v>452.5884402785906</v>
+        <v>598.6161957820904</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>591.6011865869451</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>598.9166326216674</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
         <v>90.98815315591399</v>
@@ -8450,25 +8450,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>320.115627001847</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>369.9375821741921</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8532,19 +8532,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>234.9862648617782</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>586.5539326316472</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
@@ -8769,16 +8769,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>454.5321323046928</v>
+        <v>351.8313913012159</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8787,7 +8787,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8942,7 +8942,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
         <v>331.2113854294513</v>
@@ -9012,19 +9012,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>577.006990218999</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9182,7 +9182,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9246,19 +9246,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>461.3398360504045</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
         <v>327.7205688679246</v>
@@ -9410,7 +9410,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N20" t="n">
-        <v>682.2612020826953</v>
+        <v>682.2612020826954</v>
       </c>
       <c r="O20" t="n">
         <v>594.0482827698827</v>
@@ -9480,16 +9480,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>333.2595653118431</v>
+        <v>510.5662141339224</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9714,22 +9714,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>636.8366347720143</v>
       </c>
       <c r="N24" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9954,16 +9954,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>515.2544481366735</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2595653118427</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10197,13 +10197,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286863</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10428,16 +10428,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>663.2434089132776</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10668,13 +10668,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10838,7 +10838,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P38" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
         <v>331.2113854294513</v>
@@ -10902,22 +10902,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>262.5710112738847</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11136,28 +11136,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>287.6151683397065</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,22 +11373,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>488.8476739954107</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>230.4905691364593</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414335</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404347</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>116.6709528382719</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23498,22 +23498,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>14.11306200385698</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>140.1440017788757</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.8571450340435</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>291.5668045419573</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>8.810729923425242e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>284.0215672213455</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>224.3753804589424</v>
       </c>
       <c r="I41" t="n">
-        <v>13.19936201018198</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25688,7 +25688,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>270.8222052111636</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>243.5346609531174</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>118.001341628471</v>
+        <v>224.3753804589424</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822795</v>
+        <v>40.48690626822797</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25913,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812808</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>124.7987569459456</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>156.7283627995155</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>627250.185062905</v>
+        <v>626347.8636422645</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>627250.185062905</v>
+        <v>626347.8636422645</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>597984.0838311565</v>
+        <v>597984.0838311564</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>633809.0666845473</v>
+        <v>633809.0666845475</v>
       </c>
     </row>
     <row r="9">
@@ -26314,25 +26314,25 @@
         <v>667229.05894542</v>
       </c>
       <c r="C2" t="n">
+        <v>667229.0589454198</v>
+      </c>
+      <c r="D2" t="n">
         <v>667229.0589454201</v>
-      </c>
-      <c r="D2" t="n">
-        <v>667229.0589454202</v>
       </c>
       <c r="E2" t="n">
         <v>627061.6539279824</v>
       </c>
       <c r="F2" t="n">
-        <v>627061.6539279823</v>
+        <v>627061.6539279824</v>
       </c>
       <c r="G2" t="n">
-        <v>667229.0589454198</v>
+        <v>667229.05894542</v>
       </c>
       <c r="H2" t="n">
-        <v>667229.0589454196</v>
+        <v>667229.0589454201</v>
       </c>
       <c r="I2" t="n">
-        <v>667229.0589454198</v>
+        <v>667229.05894542</v>
       </c>
       <c r="J2" t="n">
         <v>667229.0589454217</v>
@@ -26341,19 +26341,19 @@
         <v>667229.0589454221</v>
       </c>
       <c r="L2" t="n">
-        <v>667229.0589454187</v>
+        <v>667229.0589454203</v>
       </c>
       <c r="M2" t="n">
         <v>667229.0589454201</v>
       </c>
       <c r="N2" t="n">
-        <v>667229.0589454202</v>
+        <v>667229.05894542</v>
       </c>
       <c r="O2" t="n">
         <v>629795.7916877214</v>
       </c>
       <c r="P2" t="n">
-        <v>629795.7916877213</v>
+        <v>629795.7916877214</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343509</v>
+        <v>169649.0058765499</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602636</v>
+        <v>26460.41160941814</v>
       </c>
       <c r="E3" t="n">
-        <v>130452.9311377122</v>
+        <v>130452.9311377121</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469668</v>
+        <v>215329.5897923934</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670107</v>
+        <v>46725.80335481241</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436836</v>
+        <v>43782.97194555665</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015688</v>
+        <v>18983.55983015679</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202745.5458432091</v>
+        <v>208555.398698792</v>
       </c>
       <c r="C4" t="n">
-        <v>202745.5458432091</v>
+        <v>208555.398698792</v>
       </c>
       <c r="D4" t="n">
         <v>188683.9728110359</v>
       </c>
       <c r="E4" t="n">
-        <v>135951.9703483081</v>
+        <v>135951.970348308</v>
       </c>
       <c r="F4" t="n">
         <v>135951.970348308</v>
@@ -26442,10 +26442,10 @@
         <v>161306.7834561731</v>
       </c>
       <c r="K4" t="n">
-        <v>161306.7834561731</v>
+        <v>161306.7834561732</v>
       </c>
       <c r="L4" t="n">
-        <v>160983.928801512</v>
+        <v>160850.5341924572</v>
       </c>
       <c r="M4" t="n">
         <v>160556.29099179</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814953</v>
+        <v>64406.32768295293</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814953</v>
+        <v>64406.32768295293</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26497,13 +26497,13 @@
         <v>63659.04525391951</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.2134644677</v>
+        <v>60332.6753058834</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
         <v>55320.40778255072</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>220567.6546797104</v>
+        <v>224618.3266871251</v>
       </c>
       <c r="C6" t="n">
-        <v>398562.9518140614</v>
+        <v>394267.3325636749</v>
       </c>
       <c r="D6" t="n">
-        <v>390235.5064711848</v>
+        <v>382499.2172477929</v>
       </c>
       <c r="E6" t="n">
-        <v>305544.462933053</v>
+        <v>305435.902378952</v>
       </c>
       <c r="F6" t="n">
-        <v>435997.3940707652</v>
+        <v>435888.8335166641</v>
       </c>
       <c r="G6" t="n">
-        <v>419408.0427650958</v>
+        <v>419408.0427650959</v>
       </c>
       <c r="H6" t="n">
-        <v>448502.99863811</v>
+        <v>448502.9986381104</v>
       </c>
       <c r="I6" t="n">
-        <v>448502.9986381102</v>
+        <v>448502.9986381103</v>
       </c>
       <c r="J6" t="n">
-        <v>220417.3552883623</v>
+        <v>226933.6404429356</v>
       </c>
       <c r="K6" t="n">
         <v>442263.2302353294</v>
       </c>
       <c r="L6" t="n">
-        <v>403368.883302738</v>
+        <v>399320.0460922673</v>
       </c>
       <c r="M6" t="n">
-        <v>405771.721703742</v>
+        <v>404720.0266925537</v>
       </c>
       <c r="N6" t="n">
-        <v>448502.9986381105</v>
+        <v>448502.9986381103</v>
       </c>
       <c r="O6" t="n">
-        <v>417865.2378277144</v>
+        <v>417764.0668351262</v>
       </c>
       <c r="P6" t="n">
-        <v>436848.7976578711</v>
+        <v>436747.6266652829</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
         <v>93.99127447431644</v>
@@ -26707,25 +26707,25 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431647</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5863713539248</v>
+        <v>116.029833826564</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="P2" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129858</v>
+        <v>506.2290737327785</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129858</v>
+        <v>506.2290737327785</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26814,10 +26814,10 @@
         <v>917.0607368443784</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>856.7828422880689</v>
+        <v>831.8776843078617</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>36.36869484126797</v>
       </c>
       <c r="H2" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304856</v>
+        <v>57.6225796330485</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087633</v>
+        <v>58.40725419351551</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165943</v>
+        <v>14.33013548902036</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.7294497876961</v>
+        <v>23.72944978769598</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129858</v>
+        <v>506.2290737327785</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455630932</v>
+        <v>85.18305253651658</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559201</v>
+        <v>646.8007142757128</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455242</v>
+        <v>129.6883820257314</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304856</v>
+        <v>57.6225796330485</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129858</v>
+        <v>506.2290737327785</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455630932</v>
+        <v>85.18305253651658</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>160.9220412857368</v>
       </c>
       <c r="X2" t="n">
-        <v>258.4655110103124</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>43.99219550354829</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>76.66721019407829</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>128.1091850427963</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -27558,7 +27558,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>210.2831670182383</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27625,16 +27625,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>244.3105875829582</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>236.9951326713811</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27713,7 +27713,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>15.34787464026154</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>122.834138287803</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27777,16 +27777,16 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
@@ -27825,19 +27825,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>19.34431822393046</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>153.0670999697037</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27853,25 +27853,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>187.4731967223483</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>43.0921593262744</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>89.83064772952768</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -28059,22 +28059,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>220.1322412032064</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="14">
@@ -28743,10 +28743,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668768</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28761,13 +28761,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>128.2979821082774</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28995,16 +28995,16 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>128.2979821082783</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>5.636002634528545</v>
       </c>
       <c r="R22" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29086,7 +29086,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T23" t="n">
         <v>130.3599693155844</v>
@@ -29217,7 +29217,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29229,10 +29229,10 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>35.71049010668767</v>
       </c>
       <c r="O25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>128.2979821082783</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,43 +29272,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431644</v>
+        <v>30.27223765901317</v>
       </c>
       <c r="N26" t="n">
-        <v>30.27223765901306</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -29317,31 +29317,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29533,13 +29533,13 @@
         <v>93.99127447431647</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>30.27223765901215</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M29" t="n">
         <v>93.99127447431647</v>
@@ -29551,10 +29551,10 @@
         <v>93.99127447431647</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431647</v>
+        <v>30.27223765901272</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431647</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.029833826564</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.029833826564</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.029833826564</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.029833826564</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.029833826564</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.029833826564</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.029833826564</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.029833826564</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29776,46 +29776,46 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>103.2865954513725</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>26.78466270502292</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>116.029833826564</v>
       </c>
       <c r="P32" t="n">
-        <v>109.5863713539248</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>109.5863713539248</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>109.5863713539248</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.029833826564</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.029833826564</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.029833826564</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.029833826564</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.029833826564</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.029833826564</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.029833826564</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.029833826564</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.029833826564</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.029833826564</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.029833826564</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.029833826564</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.029833826564</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.029833826564</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.029833826564</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5863713539248</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>109.5863713539248</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>116.029833826564</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>116.029833826564</v>
       </c>
       <c r="N34" t="n">
-        <v>109.5863713539248</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.029833826564</v>
       </c>
       <c r="P34" t="n">
-        <v>58.99686212484343</v>
+        <v>13.98970481639665</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.029833826564</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.029833826564</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.029833826564</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.029833826564</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.029833826564</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.029833826564</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.029833826564</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.029833826564</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30028,31 +30028,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="36">
@@ -30141,34 +30141,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>130.3599693155843</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30180,7 +30180,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>128.2979821082788</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V38" t="n">
         <v>130.3599693155843</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155855</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="39">
@@ -30378,34 +30378,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30417,37 +30417,37 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>5.636002634529945</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R40" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="J43" t="n">
-        <v>96.46683947023186</v>
+        <v>36.24905561693195</v>
       </c>
       <c r="K43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="L43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="M43" t="n">
-        <v>36.24905561693163</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="N43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="O43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="P43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="C44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="D44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="E44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="F44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="G44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="H44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="I44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="T44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="U44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="V44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="W44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="X44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="C46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="D46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="E46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="F46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="G46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="H46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="I46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="J46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="K46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="L46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="M46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="N46" t="n">
-        <v>36.24905561693149</v>
+        <v>36.24905561693183</v>
       </c>
       <c r="O46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="P46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="R46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="S46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="T46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="U46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="V46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="W46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="X46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023185</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>6.124623492700321</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
@@ -34705,10 +34705,10 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>120.435633708991</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>531.1342317129858</v>
+        <v>506.2290737327785</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34717,7 +34717,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>531.1342317129858</v>
+        <v>506.2290737327785</v>
       </c>
       <c r="N3" t="n">
-        <v>409.5333264483745</v>
+        <v>22.58464313947054</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>506.2290737327785</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34939,13 +34939,13 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>80.32173415955505</v>
+        <v>14.53827799280203</v>
       </c>
       <c r="N5" t="n">
-        <v>531.1342317129858</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>48.54898157998544</v>
       </c>
       <c r="M6" t="n">
-        <v>360.2013182292786</v>
+        <v>506.2290737327785</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>506.2290737327785</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>506.2290737327785</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>170.3905754041197</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>220.3737447500957</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35252,19 +35252,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>144.92591800486</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>501.1818197774805</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>362.1450102553808</v>
+        <v>259.444269251904</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35507,7 +35507,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
@@ -35586,7 +35586,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35662,7 +35662,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
         <v>186.7126870110591</v>
@@ -35732,19 +35732,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>484.6198681696871</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>371.2794891934863</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>236.7324157120106</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.636002634528606</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36057,13 +36057,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>5.636002634528635</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O20" t="n">
         <v>444.4844453457863</v>
@@ -36200,16 +36200,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>247.8874524576764</v>
+        <v>425.1941012797557</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36291,16 +36291,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>292.6462316453571</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681028</v>
       </c>
       <c r="R22" t="n">
-        <v>7.69798984183555</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>544.4495127227025</v>
       </c>
       <c r="N24" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36525,10 +36525,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>220.7505244816465</v>
       </c>
       <c r="O25" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634529554</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36601,10 +36601,10 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>581.7882983101047</v>
       </c>
       <c r="N26" t="n">
-        <v>563.4149484039242</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
         <v>444.4844453457863</v>
@@ -36613,10 +36613,10 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853755</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698316</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,16 +36674,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>425.1941012797553</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>528.5755626272231</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
@@ -36847,10 +36847,10 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700718</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698319</v>
@@ -36917,13 +36917,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>247.8874524576761</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397974</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -37072,25 +37072,25 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>601.5899204195834</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>559.9273734499341</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>560.5142791723504</v>
       </c>
       <c r="P32" t="n">
-        <v>461.2909088605126</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>296.299058364984</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>71.97338677659155</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,16 +37148,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>570.8562868639657</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.51188388176575</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>192.2480290407348</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>165.78549482202</v>
+        <v>281.815328648584</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>304.203145279356</v>
       </c>
       <c r="N34" t="n">
-        <v>294.6264057288836</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>273.9346208910037</v>
+        <v>280.3780833636429</v>
       </c>
       <c r="P34" t="n">
-        <v>180.0838982628016</v>
+        <v>135.0767409543548</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37324,7 +37324,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>213.0216270023943</v>
+        <v>88.29766032133901</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37476,7 +37476,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>5.636002634530013</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
         <v>186.7126870110591</v>
@@ -37622,22 +37622,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>172.5106644169664</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37713,13 +37713,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>169.9842521716088</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>200.5318035203919</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.3923519980728</v>
+        <v>6.174568144772888</v>
       </c>
       <c r="K43" t="n">
         <v>179.1284971570418</v>
@@ -37944,7 +37944,7 @@
         <v>262.2523342922518</v>
       </c>
       <c r="M43" t="n">
-        <v>224.4223670697236</v>
+        <v>284.6401509230238</v>
       </c>
       <c r="N43" t="n">
         <v>281.5068738451906</v>
@@ -37956,7 +37956,7 @@
         <v>217.55387560819</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.92360348038434</v>
+        <v>99.92360348038433</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>398.7873271384925</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>66.3923519980728</v>
+        <v>66.39235199807277</v>
       </c>
       <c r="K46" t="n">
         <v>179.1284971570418</v>
@@ -38184,7 +38184,7 @@
         <v>284.6401509230238</v>
       </c>
       <c r="N46" t="n">
-        <v>221.2890899918903</v>
+        <v>221.2890899918906</v>
       </c>
       <c r="O46" t="n">
         <v>260.8150890073107</v>
@@ -38193,7 +38193,7 @@
         <v>217.55387560819</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.92360348038434</v>
+        <v>99.92360348038433</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
